--- a/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_56.xlsx
+++ b/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_56.xlsx
@@ -1191,10 +1191,10 @@
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="1">
-        <v>4188377156</v>
+        <v>4188377156.3100057</v>
       </c>
       <c r="J12" s="1">
-        <v>3588029419.4499989</v>
+        <v>3588029419</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="14"/>
@@ -1227,10 +1227,10 @@
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="1">
-        <v>1012006300</v>
+        <v>1012006300.0300001</v>
       </c>
       <c r="J13" s="1">
-        <v>956934340.6400001</v>
+        <v>956934340.60000002</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -1263,10 +1263,10 @@
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="1">
-        <v>-4419159.29</v>
+        <v>-44319159.290000051</v>
       </c>
       <c r="J14" s="1">
-        <v>146268235.09</v>
+        <v>146268235.09999999</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -1335,10 +1335,10 @@
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="1">
-        <v>-162861893.59999999</v>
+        <v>-162861893.56999999</v>
       </c>
       <c r="J16" s="1">
-        <v>-193292161.31999999</v>
+        <v>193292161.30000001</v>
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
@@ -1412,11 +1412,12 @@
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="1">
-        <v>4409920415</v>
+        <f>SUM(I12:I17)</f>
+        <v>4409920415.0200062</v>
       </c>
       <c r="J18" s="1">
         <f>SUM(J12:J17)</f>
-        <v>3988593763.0699997</v>
+        <v>4375178085.210001</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
@@ -1449,10 +1450,10 @@
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="1">
-        <v>-1160500000</v>
+        <v>-1160500000.0000002</v>
       </c>
       <c r="J19" s="1">
-        <v>-1105900000</v>
+        <v>1105900000</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -1526,11 +1527,12 @@
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="33">
-        <v>3283450395</v>
+        <f>SUM(I18:I20)</f>
+        <v>3283450394.5500064</v>
       </c>
       <c r="J21" s="33">
         <f>SUM(J18:J20)</f>
-        <v>2873504780.9799995</v>
+        <v>5471889103.1200008</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -1566,7 +1568,7 @@
         <v>-85592745</v>
       </c>
       <c r="J22" s="32">
-        <v>-57815625</v>
+        <v>57815625</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -1605,11 +1607,11 @@
       <c r="H23" s="6"/>
       <c r="I23" s="33">
         <f>SUM(I21:I22)</f>
-        <v>3197857650</v>
+        <v>3197857649.5500064</v>
       </c>
       <c r="J23" s="33">
         <f>SUM(J21:J22)</f>
-        <v>2815689155.9799995</v>
+        <v>5529704728.1200008</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="43"/>
@@ -1653,11 +1655,11 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5">
         <f>I23/I26</f>
-        <v>3.1641313041583596</v>
+        <v>3.1641313037504433</v>
       </c>
       <c r="J25" s="5">
         <f>J23/J26</f>
-        <v>2.7284410027286836</v>
+        <v>5.3583589254775577</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="3"/>
@@ -1688,10 +1690,10 @@
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="1">
-        <v>1010658959</v>
+        <v>1010658958.9880759</v>
       </c>
       <c r="J26" s="1">
-        <v>1031977291.487725</v>
+        <v>1031977291</v>
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="14"/>
@@ -1745,7 +1747,7 @@
       <c r="I28" s="6"/>
       <c r="J28" s="16">
         <f>(J25-I25)/I25</f>
-        <v>-0.13769665653795207</v>
+        <v>0.69346920563198422</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
@@ -1771,7 +1773,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6">
         <f>SUM(I25:J25)/2</f>
-        <v>2.9462861534435216</v>
+        <v>4.2612451146140007</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
